--- a/[S5]软件需求变更/004需求变更优先级/SRA2021-G14-变更需求优先级排序.xlsx
+++ b/[S5]软件需求变更/004需求变更优先级/SRA2021-G14-变更需求优先级排序.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7730"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -111,6 +116,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -118,36 +168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -156,38 +178,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +192,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -209,47 +215,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +293,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,13 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,109 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +466,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,56 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +517,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -561,16 +540,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,149 +584,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,17 +1054,17 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N17" sqref="N16:N17"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="28.4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.0666666666667" customWidth="1"/>
+    <col min="1" max="1" width="28.3981481481481" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.0648148148148" customWidth="1"/>
     <col min="18" max="18" width="12.6666666666667"/>
-    <col min="20" max="20" width="12.8916666666667"/>
-    <col min="22" max="22" width="12.8916666666667"/>
-    <col min="23" max="23" width="12.2" customWidth="1"/>
+    <col min="20" max="20" width="12.8888888888889"/>
+    <col min="22" max="22" width="12.8888888888889"/>
+    <col min="23" max="23" width="12.2037037037037" customWidth="1"/>
     <col min="24" max="24" width="12.6666666666667"/>
   </cols>
   <sheetData>
@@ -1154,54 +1162,54 @@
       <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:24">
+    <row r="3" ht="15.6" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7</v>
+      <c r="B3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9</v>
       </c>
       <c r="D3">
         <f>SUM(B3:C3)*1.5</f>
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9</v>
       </c>
       <c r="G3">
         <f>SUM(E3:F3)*1.2</f>
-        <v>19.2</v>
+        <v>21.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1215,20 +1223,20 @@
       </c>
       <c r="Q3">
         <f>SUM(D3,G3,J3,M3,P3)</f>
-        <v>40.2</v>
+        <v>48.6</v>
       </c>
       <c r="R3">
         <f>Q3/4893.2</f>
-        <v>0.00821548271070057</v>
-      </c>
-      <c r="S3" s="9">
+        <v>0.00993215073980217</v>
+      </c>
+      <c r="S3" s="10">
         <v>5</v>
       </c>
       <c r="T3">
         <f>S3/371</f>
         <v>0.0134770889487871</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="10">
         <v>3</v>
       </c>
       <c r="V3">
@@ -1241,32 +1249,32 @@
       </c>
       <c r="X3">
         <f>R3/W3</f>
-        <v>0.388803801361082</v>
+        <v>0.470046386720113</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:24">
+    <row r="4" ht="15.6" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
         <v>6</v>
       </c>
       <c r="D4">
         <f>SUM(B4:C4)*1.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>9</v>
       </c>
       <c r="G4">
         <f>SUM(E4:F4)*1.2</f>
-        <v>13.2</v>
+        <v>21.6</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1280,20 +1288,20 @@
       </c>
       <c r="Q4">
         <f>SUM(D4,G4,J4,M4,P4)</f>
-        <v>32.7</v>
+        <v>39.6</v>
       </c>
       <c r="R4">
         <f>Q4/4893.2</f>
-        <v>0.0066827433990027</v>
-      </c>
-      <c r="S4" s="9">
+        <v>0.00809286356576473</v>
+      </c>
+      <c r="S4" s="10">
         <v>2</v>
       </c>
       <c r="T4">
         <f>S4/371</f>
         <v>0.00539083557951483</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="10">
         <v>2</v>
       </c>
       <c r="V4">
@@ -1306,23 +1314,29 @@
       </c>
       <c r="X4">
         <f>R4/W4</f>
-        <v>0.636883838796698</v>
+        <v>0.771272171753795</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:24">
+    <row r="5" ht="15.6" spans="1:24">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
       </c>
       <c r="D5">
         <f>SUM(B5:C5)*1.5</f>
         <v>19.5</v>
       </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -1351,14 +1365,14 @@
         <f>Q5/4893.2</f>
         <v>0.0054565519496444</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="10">
         <v>3</v>
       </c>
       <c r="T5">
         <f>S5/371</f>
         <v>0.00808625336927224</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="10">
         <v>3</v>
       </c>
       <c r="V5">
@@ -1371,12 +1385,12 @@
       </c>
       <c r="X5">
         <f>R5/W5</f>
-        <v>0.346682945889334</v>
+        <v>0.346682945889335</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
